--- a/Implicit Runs.xlsx
+++ b/Implicit Runs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>b,g</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>0.25, 0.25</t>
+  </si>
+  <si>
+    <t>0.4, 0.25</t>
   </si>
 </sst>
 </file>
@@ -372,13 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +429,17 @@
       <c r="S1">
         <v>931.21979999999996</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>1191.423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -471,8 +485,17 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5.2452322992522902</v>
       </c>
@@ -518,8 +541,17 @@
       <c r="S3">
         <v>-3.69232868856496</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>-5.2362716603835002</v>
+      </c>
+      <c r="V3">
+        <v>1.5279779226363399</v>
+      </c>
+      <c r="W3">
+        <v>-3.7082937377471601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-5.2329819990751503</v>
       </c>
@@ -565,8 +597,17 @@
       <c r="S4">
         <v>-3.65400036185454</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>-5.2170894543635304</v>
+      </c>
+      <c r="V4">
+        <v>1.5410731109584599</v>
+      </c>
+      <c r="W4">
+        <v>-3.6760163434050699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-5.2713721463556702</v>
       </c>
@@ -612,8 +653,17 @@
       <c r="S5">
         <v>-3.6002039428485602</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>-5.2472518794724099</v>
+      </c>
+      <c r="V5">
+        <v>1.61841373692922</v>
+      </c>
+      <c r="W5">
+        <v>-3.6288381425431901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-5.28039079917981</v>
       </c>
@@ -659,8 +709,17 @@
       <c r="S6">
         <v>-3.5662273439149201</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>-5.2383946090181404</v>
+      </c>
+      <c r="V6">
+        <v>1.6416242728666</v>
+      </c>
+      <c r="W6">
+        <v>-3.5967703361515402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.2310882120704996</v>
       </c>
@@ -706,8 +765,17 @@
       <c r="S7">
         <v>-3.53688021125667</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>-5.1723656818869896</v>
+      </c>
+      <c r="V7">
+        <v>1.59967268944997</v>
+      </c>
+      <c r="W7">
+        <v>-3.5726929924370299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-5.2135968325934403</v>
       </c>
@@ -753,8 +821,17 @@
       <c r="S8">
         <v>-3.4870336249365401</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>-5.1424610599072897</v>
+      </c>
+      <c r="V8">
+        <v>1.5993067535847201</v>
+      </c>
+      <c r="W8">
+        <v>-3.5431543063225699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5.2374790152264996</v>
       </c>
@@ -800,8 +877,17 @@
       <c r="S9">
         <v>-3.4320851711534801</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>-5.1637977560442696</v>
+      </c>
+      <c r="V9">
+        <v>1.6793630352469799</v>
+      </c>
+      <c r="W9">
+        <v>-3.4844347207972901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-5.2355383645028599</v>
       </c>
@@ -847,8 +933,17 @@
       <c r="S10">
         <v>-3.3862610262747999</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>-5.1455109062870399</v>
+      </c>
+      <c r="V10">
+        <v>1.6927358366676599</v>
+      </c>
+      <c r="W10">
+        <v>-3.45277506961938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-5.2282870121055902</v>
       </c>
@@ -894,8 +989,17 @@
       <c r="S11">
         <v>-3.34887334375275</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>-5.1236548475976598</v>
+      </c>
+      <c r="V11">
+        <v>1.71356257245819</v>
+      </c>
+      <c r="W11">
+        <v>-3.4100922751394598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-5.2421946625135796</v>
       </c>
@@ -941,8 +1045,17 @@
       <c r="S12">
         <v>-3.2823883868612702</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>-5.1229445478285003</v>
+      </c>
+      <c r="V12">
+        <v>1.7526297230358201</v>
+      </c>
+      <c r="W12">
+        <v>-3.37031482479268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-5.2584131576606197</v>
       </c>
@@ -988,8 +1101,17 @@
       <c r="S13">
         <v>-3.2401065270634999</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>-5.1517356358511304</v>
+      </c>
+      <c r="V13">
+        <v>1.83464483956543</v>
+      </c>
+      <c r="W13">
+        <v>-3.3170907962857101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.2348149429492201</v>
       </c>
@@ -1035,8 +1157,17 @@
       <c r="S14">
         <v>-3.1964507961128299</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>-5.0871469661344397</v>
+      </c>
+      <c r="V14">
+        <v>1.79773077203996</v>
+      </c>
+      <c r="W14">
+        <v>-3.2894161940944699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.20640689592038</v>
       </c>
@@ -1082,8 +1213,17 @@
       <c r="S15">
         <v>-3.15666792543094</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>-5.0320561186554196</v>
+      </c>
+      <c r="V15">
+        <v>1.7778729468501</v>
+      </c>
+      <c r="W15">
+        <v>-3.25418317180532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5.2143491704873099</v>
       </c>
@@ -1129,8 +1269,17 @@
       <c r="S16">
         <v>-3.08332327618532</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>-5.0641732363553702</v>
+      </c>
+      <c r="V16">
+        <v>1.8794585335517799</v>
+      </c>
+      <c r="W16">
+        <v>-3.18471470280359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-5.2123882417395997</v>
       </c>
@@ -1176,8 +1325,17 @@
       <c r="S17">
         <v>-3.0413725516610701</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>-4.9962159800313799</v>
+      </c>
+      <c r="V17">
+        <v>1.83737316832869</v>
+      </c>
+      <c r="W17">
+        <v>-3.1588428117026899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-5.1811922637759897</v>
       </c>
@@ -1223,8 +1381,17 @@
       <c r="S18">
         <v>-2.9870977602751001</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>-4.97466835081923</v>
+      </c>
+      <c r="V18">
+        <v>1.8550889608105401</v>
+      </c>
+      <c r="W18">
+        <v>-3.1195793900086901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-5.2175192253694096</v>
       </c>
@@ -1270,8 +1437,17 @@
       <c r="S19">
         <v>-2.92547618110265</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>-5.0020554768010301</v>
+      </c>
+      <c r="V19">
+        <v>1.95852744608192</v>
+      </c>
+      <c r="W19">
+        <v>-3.0435280307190999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-5.1654361732978904</v>
       </c>
@@ -1317,8 +1493,17 @@
       <c r="S20">
         <v>-2.8580633931561299</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>-4.9756057946786303</v>
+      </c>
+      <c r="V20">
+        <v>1.97410188321156</v>
+      </c>
+      <c r="W20">
+        <v>-3.0015039114670699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-5.1920828151249196</v>
       </c>
@@ -1364,8 +1549,17 @@
       <c r="S21">
         <v>-2.7913718667649201</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>-4.9705179871020899</v>
+      </c>
+      <c r="V21">
+        <v>2.0316657580638302</v>
+      </c>
+      <c r="W21">
+        <v>-2.9388522290382699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-5.1813329205530998</v>
       </c>
@@ -1411,8 +1605,17 @@
       <c r="S22">
         <v>-2.7456733063472298</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>-4.9352210931298597</v>
+      </c>
+      <c r="V22">
+        <v>2.0406967555924398</v>
+      </c>
+      <c r="W22">
+        <v>-2.8945243375374199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q24" s="1">
         <v>4.10671496808845E-13</v>
       </c>
@@ -1423,7 +1626,7 @@
         <v>-3.2507330161024599E-13</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q25" s="1">
         <v>-6.5614180755346802E-14</v>
       </c>
@@ -1434,7 +1637,7 @@
         <v>-3.77697872977478E-13</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q26" s="1">
         <v>-2.16493489801906E-14</v>
       </c>
@@ -1445,7 +1648,7 @@
         <v>-4.6229686745391498E-13</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q27" s="1">
         <v>-2.9018454306139998E-14</v>
       </c>
@@ -1456,7 +1659,7 @@
         <v>-3.8785641365279798E-13</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q28" s="1">
         <v>-2.9443114613059202E-13</v>
       </c>
@@ -1467,7 +1670,7 @@
         <v>-3.7436720390360299E-13</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q29" s="1">
         <v>-1.2423395645555499E-13</v>
       </c>
@@ -1478,7 +1681,7 @@
         <v>-3.1707969583294501E-13</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q30" s="1">
         <v>-2.46469511466785E-14</v>
       </c>
@@ -1489,7 +1692,7 @@
         <v>-2.30482299912183E-13</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q31" s="1">
         <v>4.8794301932275598E-14</v>
       </c>
@@ -1500,7 +1703,7 @@
         <v>-8.5265128291211997E-14</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q32" s="1">
         <v>-1.21173904243932E-13</v>
       </c>
